--- a/STUDIO/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 7 - Introduction to Table Properties/Tutorial7 - Intro to Table Properties.xlsx
+++ b/STUDIO/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 7 - Introduction to Table Properties/Tutorial7 - Intro to Table Properties.xlsx
@@ -27,6 +27,45 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Property name. "modifiedOn" property indicates the date of the last table modification in OpenL
+Tablets WebStudio.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Property value</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -92,7 +131,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -131,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="150">
   <si>
     <t>Amount</t>
   </si>
@@ -1166,6 +1205,9 @@
   </si>
   <si>
     <t>Test CarPrice CarPrice2009Test</t>
+  </si>
+  <si>
+    <t>modifiedOn</t>
   </si>
 </sst>
 </file>
@@ -1875,7 +1917,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2074,6 +2116,9 @@
     <xf numFmtId="14" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2116,15 +2161,42 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2140,33 +2212,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2176,6 +2221,10 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Heading 1 2" xfId="9"/>
@@ -2287,13 +2336,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2761,16 +2810,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
@@ -2812,64 +2861,64 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -2934,72 +2983,72 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -3070,8 +3119,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3113,18 +3162,18 @@
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3143,74 +3192,74 @@
     </row>
     <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -3229,31 +3278,33 @@
     </row>
     <row r="24" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="108">
+        <v>41313.03170702546</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="13">
-        <v>0</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -3261,10 +3312,10 @@
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="14">
-        <v>0.7</v>
+        <v>79</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -3272,10 +3323,10 @@
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="14">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -3283,10 +3334,10 @@
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="14">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -3294,10 +3345,10 @@
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" s="14">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -3305,29 +3356,33 @@
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="14">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
-      <c r="C32" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="15">
-        <v>0.95</v>
+      <c r="C32" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="C33" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0.95</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
@@ -3340,60 +3395,60 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
-      <c r="C35" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="82"/>
+      <c r="C36" s="82" t="s">
+        <v>87</v>
+      </c>
       <c r="D36" s="82"/>
       <c r="E36" s="82"/>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
       <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
       <c r="F38" s="9"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
       <c r="F39" s="9"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
       <c r="F40" s="9"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
       <c r="F42" s="9"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -3405,9 +3460,9 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
       <c r="F44" s="9"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -3424,19 +3479,19 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
-      <c r="C47" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="12"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="C48" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="12"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
@@ -3447,19 +3502,27 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C35:E43"/>
+    <mergeCell ref="C36:E44"/>
     <mergeCell ref="C12:E21"/>
     <mergeCell ref="C8:E9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C47" location="_st2" tooltip="Step2. Business Dimensional Properties. Versioning by properties" display="Step 2."/>
+    <hyperlink ref="C48" location="_st2" tooltip="Step2. Business Dimensional Properties. Versioning by properties" display="Step 2."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3524,11 +3587,11 @@
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -3540,9 +3603,9 @@
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -3582,13 +3645,13 @@
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -3598,11 +3661,11 @@
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -3612,11 +3675,11 @@
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -3626,11 +3689,11 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -3640,11 +3703,11 @@
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -3654,11 +3717,11 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -3668,11 +3731,11 @@
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -3682,11 +3745,11 @@
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -3724,13 +3787,13 @@
     <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -3740,11 +3803,11 @@
     <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -3754,11 +3817,11 @@
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -3768,11 +3831,11 @@
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -3809,23 +3872,23 @@
     </row>
     <row r="28" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
       <c r="M28" s="9"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="101" t="s">
+      <c r="C29" s="95" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="65" t="s">
@@ -3845,7 +3908,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="101"/>
+      <c r="C30" s="95"/>
       <c r="D30" s="65" t="s">
         <v>37</v>
       </c>
@@ -3933,35 +3996,35 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
-      <c r="C34" s="97" t="s">
+      <c r="C34" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="97" t="s">
+      <c r="D34" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="87" t="s">
+      <c r="E34" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="99" t="s">
+      <c r="F34" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100" t="s">
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="102"/>
+      <c r="L34" s="96"/>
       <c r="M34" s="9"/>
     </row>
     <row r="35" spans="2:13" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="88"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="94"/>
       <c r="F35" s="25" t="s">
         <v>18</v>
       </c>
@@ -3990,7 +4053,7 @@
       <c r="C36" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="94" t="s">
+      <c r="D36" s="97" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="28" t="s">
@@ -4024,7 +4087,7 @@
       <c r="C37" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="95"/>
+      <c r="D37" s="87"/>
       <c r="E37" s="23" t="s">
         <v>30</v>
       </c>
@@ -4056,7 +4119,7 @@
       <c r="C38" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="95"/>
+      <c r="D38" s="87"/>
       <c r="E38" s="23" t="s">
         <v>31</v>
       </c>
@@ -4088,7 +4151,7 @@
       <c r="C39" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="95" t="s">
+      <c r="D39" s="87" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="23" t="s">
@@ -4122,7 +4185,7 @@
       <c r="C40" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="95"/>
+      <c r="D40" s="87"/>
       <c r="E40" s="23" t="s">
         <v>27</v>
       </c>
@@ -4154,7 +4217,7 @@
       <c r="C41" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="95"/>
+      <c r="D41" s="87"/>
       <c r="E41" s="23" t="s">
         <v>28</v>
       </c>
@@ -4186,7 +4249,7 @@
       <c r="C42" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="95" t="s">
+      <c r="D42" s="87" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="23" t="s">
@@ -4220,7 +4283,7 @@
       <c r="C43" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="95"/>
+      <c r="D43" s="87"/>
       <c r="E43" s="23" t="s">
         <v>33</v>
       </c>
@@ -4252,7 +4315,7 @@
       <c r="C44" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="96"/>
+      <c r="D44" s="88"/>
       <c r="E44" s="24" t="s">
         <v>34</v>
       </c>
@@ -4309,23 +4372,23 @@
     </row>
     <row r="47" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
-      <c r="C47" s="80" t="s">
+      <c r="C47" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
       <c r="M47" s="9"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
-      <c r="C48" s="101" t="s">
+      <c r="C48" s="95" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="65" t="s">
@@ -4345,7 +4408,7 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
-      <c r="C49" s="101"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="65" t="s">
         <v>37</v>
       </c>
@@ -4433,43 +4496,43 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="9"/>
-      <c r="C53" s="97" t="s">
+      <c r="C53" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="97" t="s">
+      <c r="D53" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="87" t="s">
+      <c r="E53" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="99" t="s">
+      <c r="F53" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="100" t="s">
+      <c r="G53" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="100" t="s">
+      <c r="H53" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="100" t="s">
+      <c r="I53" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="100" t="s">
+      <c r="J53" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="K53" s="100" t="s">
+      <c r="K53" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="102" t="s">
+      <c r="L53" s="96" t="s">
         <v>15</v>
       </c>
       <c r="M53" s="9"/>
     </row>
     <row r="54" spans="2:13" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="9"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="88"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="94"/>
       <c r="F54" s="25" t="s">
         <v>18</v>
       </c>
@@ -4498,7 +4561,7 @@
       <c r="C55" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="94" t="s">
+      <c r="D55" s="97" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="28" t="s">
@@ -4532,7 +4595,7 @@
       <c r="C56" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="95" t="s">
+      <c r="D56" s="87" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="23" t="s">
@@ -4566,7 +4629,7 @@
       <c r="C57" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D57" s="95" t="s">
+      <c r="D57" s="87" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="23" t="s">
@@ -4600,7 +4663,7 @@
       <c r="C58" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="95" t="s">
+      <c r="D58" s="87" t="s">
         <v>24</v>
       </c>
       <c r="E58" s="23" t="s">
@@ -4634,7 +4697,7 @@
       <c r="C59" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="95" t="s">
+      <c r="D59" s="87" t="s">
         <v>24</v>
       </c>
       <c r="E59" s="23" t="s">
@@ -4668,7 +4731,7 @@
       <c r="C60" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="95" t="s">
+      <c r="D60" s="87" t="s">
         <v>24</v>
       </c>
       <c r="E60" s="23" t="s">
@@ -4702,7 +4765,7 @@
       <c r="C61" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="95" t="s">
+      <c r="D61" s="87" t="s">
         <v>25</v>
       </c>
       <c r="E61" s="23" t="s">
@@ -4736,7 +4799,7 @@
       <c r="C62" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="95" t="s">
+      <c r="D62" s="87" t="s">
         <v>25</v>
       </c>
       <c r="E62" s="23" t="s">
@@ -4770,7 +4833,7 @@
       <c r="C63" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="96" t="s">
+      <c r="D63" s="88" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="24" t="s">
@@ -4830,13 +4893,13 @@
     <row r="66" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="80" t="s">
+      <c r="D66" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -5100,11 +5163,11 @@
     <row r="79" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
-      <c r="D79" s="89" t="s">
+      <c r="D79" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="89"/>
-      <c r="F79" s="89"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
@@ -5119,10 +5182,10 @@
       <c r="D80" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="E80" s="90" t="s">
+      <c r="E80" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="90"/>
+      <c r="F80" s="100"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
@@ -5137,10 +5200,10 @@
       <c r="D81" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="91" t="s">
+      <c r="E81" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="F81" s="91"/>
+      <c r="F81" s="101"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
@@ -5155,10 +5218,10 @@
       <c r="D82" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E82" s="91" t="s">
+      <c r="E82" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="F82" s="91"/>
+      <c r="F82" s="101"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
@@ -5173,10 +5236,10 @@
       <c r="D83" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="E83" s="91" t="s">
+      <c r="E83" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="F83" s="91"/>
+      <c r="F83" s="101"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
@@ -5191,10 +5254,10 @@
       <c r="D84" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="E84" s="92" t="s">
+      <c r="E84" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="F84" s="92"/>
+      <c r="F84" s="102"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
@@ -5209,10 +5272,10 @@
       <c r="D85" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E85" s="93" t="s">
+      <c r="E85" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="F85" s="93"/>
+      <c r="F85" s="103"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
@@ -5296,10 +5359,10 @@
     <row r="91" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="86" t="s">
+      <c r="D91" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="E91" s="86" t="s">
+      <c r="E91" s="98" t="s">
         <v>71</v>
       </c>
       <c r="F91" s="9"/>
@@ -5378,10 +5441,10 @@
     <row r="96" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="86" t="s">
+      <c r="D96" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="E96" s="86"/>
+      <c r="E96" s="98"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -5656,13 +5719,13 @@
     <row r="114" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
-      <c r="D114" s="81" t="s">
+      <c r="D114" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="E114" s="81"/>
-      <c r="F114" s="81"/>
-      <c r="G114" s="81"/>
-      <c r="H114" s="81"/>
+      <c r="E114" s="82"/>
+      <c r="F114" s="82"/>
+      <c r="G114" s="82"/>
+      <c r="H114" s="82"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -5672,11 +5735,11 @@
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
-      <c r="D115" s="82"/>
-      <c r="E115" s="82"/>
-      <c r="F115" s="82"/>
-      <c r="G115" s="82"/>
-      <c r="H115" s="82"/>
+      <c r="D115" s="83"/>
+      <c r="E115" s="83"/>
+      <c r="F115" s="83"/>
+      <c r="G115" s="83"/>
+      <c r="H115" s="83"/>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
@@ -5686,11 +5749,11 @@
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
-      <c r="D116" s="83"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="83"/>
-      <c r="G116" s="83"/>
-      <c r="H116" s="83"/>
+      <c r="D116" s="84"/>
+      <c r="E116" s="84"/>
+      <c r="F116" s="84"/>
+      <c r="G116" s="84"/>
+      <c r="H116" s="84"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -5725,16 +5788,16 @@
       <c r="L118" s="9"/>
       <c r="M118" s="9"/>
     </row>
-    <row r="119" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
-      <c r="D119" s="80" t="s">
+      <c r="D119" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="E119" s="80"/>
-      <c r="F119" s="80"/>
-      <c r="G119" s="80"/>
-      <c r="H119" s="80"/>
+      <c r="E119" s="81"/>
+      <c r="F119" s="81"/>
+      <c r="G119" s="81"/>
+      <c r="H119" s="81"/>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
@@ -5979,15 +6042,15 @@
       <c r="L130" s="9"/>
       <c r="M130" s="9"/>
     </row>
-    <row r="131" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
-      <c r="D131" s="80" t="s">
+      <c r="D131" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="E131" s="80"/>
-      <c r="F131" s="80"/>
-      <c r="G131" s="80"/>
+      <c r="E131" s="81"/>
+      <c r="F131" s="81"/>
+      <c r="G131" s="81"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -6182,11 +6245,11 @@
     <row r="142" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
-      <c r="D142" s="80" t="s">
+      <c r="D142" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="E142" s="80"/>
-      <c r="F142" s="80"/>
+      <c r="E142" s="81"/>
+      <c r="F142" s="81"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
@@ -6406,10 +6469,10 @@
     <row r="154" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="80" t="s">
+      <c r="D154" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="E154" s="80"/>
+      <c r="E154" s="81"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
@@ -6633,25 +6696,11 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C47:L47"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="D12:H19"/>
-    <mergeCell ref="D22:H25"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D114:H116"/>
+    <mergeCell ref="D131:G131"/>
     <mergeCell ref="D8:F9"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="E53:E54"/>
@@ -6668,11 +6717,25 @@
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="D61:D63"/>
     <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D114:H116"/>
-    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="D12:H19"/>
+    <mergeCell ref="D22:H25"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C47:L47"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K34:L34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D165" location="_st3" tooltip="Step3. Category and Module Level Properties" display="Step 3."/>
@@ -6735,11 +6798,11 @@
     </row>
     <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6747,9 +6810,9 @@
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -6777,11 +6840,11 @@
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -6789,9 +6852,9 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -6799,9 +6862,9 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -6809,9 +6872,9 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -6869,11 +6932,11 @@
     </row>
     <row r="21" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -6901,11 +6964,11 @@
     </row>
     <row r="24" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -6913,9 +6976,9 @@
     </row>
     <row r="25" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -6923,9 +6986,9 @@
     </row>
     <row r="26" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -6933,9 +6996,9 @@
     </row>
     <row r="27" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -6943,9 +7006,9 @@
     </row>
     <row r="28" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -6953,9 +7016,9 @@
     </row>
     <row r="29" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -6963,9 +7026,9 @@
     </row>
     <row r="30" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -6973,9 +7036,9 @@
     </row>
     <row r="31" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -7003,10 +7066,10 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
-      <c r="C34" s="105" t="s">
+      <c r="C34" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="105"/>
+      <c r="D34" s="106"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -7107,11 +7170,11 @@
     </row>
     <row r="43" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
-      <c r="C43" s="104" t="s">
+      <c r="C43" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -7139,11 +7202,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
-      <c r="C46" s="81" t="s">
+      <c r="C46" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -7151,9 +7214,9 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -7161,9 +7224,9 @@
     </row>
     <row r="48" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -7171,9 +7234,9 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -7181,9 +7244,9 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -7191,9 +7254,9 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -7221,11 +7284,11 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="9"/>
-      <c r="C54" s="81" t="s">
+      <c r="C54" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -7233,9 +7296,9 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -7243,9 +7306,9 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -7253,9 +7316,9 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
@@ -7263,9 +7326,9 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -7423,11 +7486,11 @@
     </row>
     <row r="74" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="9"/>
-      <c r="C74" s="103" t="s">
+      <c r="C74" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
+      <c r="D74" s="104"/>
+      <c r="E74" s="104"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>

--- a/STUDIO/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 7 - Introduction to Table Properties/Tutorial7 - Intro to Table Properties.xlsx
+++ b/STUDIO/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 7 - Introduction to Table Properties/Tutorial7 - Intro to Table Properties.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BCDC36-29E1-41DF-982B-91E2CDAA67C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D25" authorId="0" shapeId="0">
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0" shapeId="0">
+    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,12 +67,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D29" authorId="0" shapeId="0">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E67" authorId="0" shapeId="0">
+    <comment ref="E67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D120" authorId="0" shapeId="0">
+    <comment ref="D120" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -132,12 +133,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C34" authorId="0" shapeId="0">
+    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0" shapeId="0">
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -428,31 +429,6 @@
   </si>
   <si>
     <t>&gt; 100</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>LiquidityRatioScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (DoubleValue liquidityRatio)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -555,56 +531,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Rules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>CarPrice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (Car car, Address billingAddress)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">DiscountPercentage </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(Car car, int numberOfCars)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">        *Properties of an OpenL Table are targeted to contain information about the table.
 Table properties are displayed in the section which goes</t>
     </r>
@@ -736,31 +662,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Spreadsheet DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>PriceForOrder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (Car car, int numberOfCars, Address billingAddress)</t>
-    </r>
-  </si>
-  <si>
     <t>Step</t>
   </si>
   <si>
@@ -1209,15 +1110,115 @@
   <si>
     <t>modifiedOn</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SimpleRules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>LiquidityRatioScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (Double liquidityRatio)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>CarPrice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (Car car, Address billingAddress)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">DiscountPercentage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Car car, int numberOfCars)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spreadsheet Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>PriceForOrder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (Car car, int numberOfCars, Address billingAddress)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="\ &quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="\ &quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1904,7 +1905,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1962,13 +1963,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="8" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="8" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1995,13 +1996,13 @@
     <xf numFmtId="9" fontId="5" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="8" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="8" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="8" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="8" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2061,7 +2062,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2073,7 +2074,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2119,6 +2120,10 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2221,28 +2226,24 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="16">
-    <cellStyle name="Heading 1 2" xfId="9"/>
+    <cellStyle name="Heading 1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="8"/>
-    <cellStyle name="Hyperlink 3" xfId="11"/>
+    <cellStyle name="Hyperlink 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="13"/>
-    <cellStyle name="Normal 2 9" xfId="1"/>
-    <cellStyle name="Normal 3 2" xfId="5"/>
-    <cellStyle name="Normal 3 2 2" xfId="4"/>
-    <cellStyle name="Normal 5" xfId="15"/>
-    <cellStyle name="Normal 6" xfId="2"/>
-    <cellStyle name="Normal 7" xfId="7"/>
-    <cellStyle name="Normal 7 2" xfId="12"/>
-    <cellStyle name="Normal 9" xfId="14"/>
-    <cellStyle name="Обычный 2" xfId="6"/>
-    <cellStyle name="Обычный 5" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 5" xfId="15" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 7" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 7 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 9" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Обычный 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Обычный 5" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2274,7 +2275,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2347,7 +2354,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvPr id="2" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2398,7 +2411,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvPr id="2" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2449,7 +2468,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2487,7 +2512,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2589,6 +2620,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2624,6 +2672,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2799,31 +2864,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="75" t="s">
+    <row r="3" spans="2:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2835,7 +2900,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2847,7 +2912,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2859,69 +2924,69 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2933,7 +2998,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2945,7 +3010,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2957,7 +3022,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2969,7 +3034,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2981,77 +3046,77 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
-      <c r="C22" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
+      <c r="C22" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -3063,7 +3128,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -3075,7 +3140,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -3087,13 +3152,13 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
     </row>
   </sheetData>
@@ -3107,11 +3172,11 @@
     <mergeCell ref="C21:J21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C18:J18" location="_st1" display="Step1. Table properties. Groups of properties"/>
-    <hyperlink ref="C20:J20" location="_st3" display="Step3. Category and Module Level Properties"/>
-    <hyperlink ref="C21:J21" location="_st31" display="     Step3-1. Properties Table and its structure"/>
-    <hyperlink ref="C22:J22" location="_st32" display="     Step3-2. The priority of property values"/>
-    <hyperlink ref="C19:J19" location="_st2" display="Step2. Business Dimensional Properties. Versioning by properties"/>
+    <hyperlink ref="C18:J18" location="_st1" display="Step1. Table properties. Groups of properties" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C20:J20" location="_st3" display="Step3. Category and Module Level Properties" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C21:J21" location="_st31" display="     Step3-1. Properties Table and its structure" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C22:J22" location="_st32" display="     Step3-2. The priority of property values" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C19:J19" location="_st2" display="Step2. Business Dimensional Properties. Versioning by properties" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3119,186 +3184,188 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="24.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="20.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
-      <c r="C12" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
+      <c r="C12" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="9"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
-      <c r="C24" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
+      <c r="C24" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="2:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="108">
+      <c r="D25" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="74">
         <v>41313.03170702546</v>
       </c>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="9"/>
       <c r="C26" s="10" t="s">
         <v>77</v>
@@ -3309,7 +3376,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
       <c r="C27" s="16" t="s">
         <v>79</v>
@@ -3320,7 +3387,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="16" t="s">
         <v>80</v>
@@ -3331,7 +3398,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
       <c r="C29" s="16" t="s">
         <v>81</v>
@@ -3342,7 +3409,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
       <c r="C30" s="16" t="s">
         <v>82</v>
@@ -3353,7 +3420,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
       <c r="C31" s="16" t="s">
         <v>83</v>
@@ -3364,7 +3431,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="16" t="s">
         <v>84</v>
@@ -3375,7 +3442,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9"/>
       <c r="C33" s="17" t="s">
         <v>85</v>
@@ -3386,123 +3453,123 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
-      <c r="C36" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
+      <c r="C36" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
       <c r="C48" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -3517,7 +3584,7 @@
     <mergeCell ref="C8:E9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C48" location="_st2" tooltip="Step2. Business Dimensional Properties. Versioning by properties" display="Step 2."/>
+    <hyperlink ref="C48" location="_st2" tooltip="Step2. Business Dimensional Properties. Versioning by properties" display="Step 2." xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3527,24 +3594,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:M167"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D79" sqref="D79:F79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="1" customWidth="1"/>
     <col min="8" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="11.109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>76</v>
       </c>
@@ -3553,10 +3622,10 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E4" s="8"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -3570,7 +3639,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -3584,14 +3653,14 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="85" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
+      <c r="D8" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -3600,12 +3669,12 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -3614,7 +3683,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -3628,7 +3697,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -3642,121 +3711,121 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
+      <c r="D12" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -3770,7 +3839,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -3784,65 +3853,65 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
+      <c r="D22" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -3856,7 +3925,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -3870,25 +3939,25 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
-      <c r="C28" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
+      <c r="C28" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="97" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="65" t="s">
@@ -3906,9 +3975,9 @@
       <c r="L29" s="19"/>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
-      <c r="C30" s="95"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="65" t="s">
         <v>37</v>
       </c>
@@ -3924,10 +3993,10 @@
       <c r="L30" s="19"/>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
       <c r="C31" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>1</v>
@@ -3950,7 +4019,7 @@
       <c r="L31" s="18"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18" t="s">
@@ -3972,7 +4041,7 @@
       <c r="L32" s="18"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18" t="s">
@@ -3982,7 +4051,7 @@
         <v>70</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>70</v>
@@ -3994,37 +4063,37 @@
       <c r="L33" s="18"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
-      <c r="C34" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="91" t="s">
+      <c r="C34" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="93" t="s">
+      <c r="E34" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="89" t="s">
+      <c r="F34" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90" t="s">
+      <c r="G34" s="92"/>
+      <c r="H34" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90" t="s">
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="96"/>
+      <c r="L34" s="98"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="2:13" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="9"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="96"/>
       <c r="F35" s="25" t="s">
         <v>18</v>
       </c>
@@ -4048,12 +4117,12 @@
       </c>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
       <c r="C36" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="99" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="28" t="s">
@@ -4082,12 +4151,12 @@
       </c>
       <c r="M36" s="9"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="87"/>
+        <v>118</v>
+      </c>
+      <c r="D37" s="89"/>
       <c r="E37" s="23" t="s">
         <v>30</v>
       </c>
@@ -4114,12 +4183,12 @@
       </c>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
       <c r="C38" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="87"/>
+        <v>119</v>
+      </c>
+      <c r="D38" s="89"/>
       <c r="E38" s="23" t="s">
         <v>31</v>
       </c>
@@ -4146,12 +4215,12 @@
       </c>
       <c r="M38" s="9"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
       <c r="C39" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="89" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="23" t="s">
@@ -4180,12 +4249,12 @@
       </c>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
       <c r="C40" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="87"/>
+        <v>121</v>
+      </c>
+      <c r="D40" s="89"/>
       <c r="E40" s="23" t="s">
         <v>27</v>
       </c>
@@ -4212,12 +4281,12 @@
       </c>
       <c r="M40" s="9"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="87"/>
+        <v>122</v>
+      </c>
+      <c r="D41" s="89"/>
       <c r="E41" s="23" t="s">
         <v>28</v>
       </c>
@@ -4244,12 +4313,12 @@
       </c>
       <c r="M41" s="9"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="89" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="23" t="s">
@@ -4278,12 +4347,12 @@
       </c>
       <c r="M42" s="9"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
       <c r="C43" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="87"/>
+        <v>124</v>
+      </c>
+      <c r="D43" s="89"/>
       <c r="E43" s="23" t="s">
         <v>33</v>
       </c>
@@ -4310,12 +4379,12 @@
       </c>
       <c r="M43" s="9"/>
     </row>
-    <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="9"/>
       <c r="C44" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" s="88"/>
+        <v>125</v>
+      </c>
+      <c r="D44" s="90"/>
       <c r="E44" s="24" t="s">
         <v>34</v>
       </c>
@@ -4342,7 +4411,7 @@
       </c>
       <c r="M44" s="9"/>
     </row>
-    <row r="45" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -4356,7 +4425,7 @@
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -4370,25 +4439,25 @@
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
     </row>
-    <row r="47" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
-      <c r="C47" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
+      <c r="C47" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
       <c r="M47" s="9"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
-      <c r="C48" s="95" t="s">
+      <c r="C48" s="97" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="65" t="s">
@@ -4406,9 +4475,9 @@
       <c r="L48" s="19"/>
       <c r="M48" s="9"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="9"/>
-      <c r="C49" s="95"/>
+      <c r="C49" s="97"/>
       <c r="D49" s="65" t="s">
         <v>37</v>
       </c>
@@ -4424,10 +4493,10 @@
       <c r="L49" s="19"/>
       <c r="M49" s="9"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="9"/>
       <c r="C50" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>1</v>
@@ -4450,7 +4519,7 @@
       <c r="L50" s="18"/>
       <c r="M50" s="9"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="9"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18" t="s">
@@ -4472,7 +4541,7 @@
       <c r="L51" s="18"/>
       <c r="M51" s="9"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18" t="s">
@@ -4482,7 +4551,7 @@
         <v>70</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>70</v>
@@ -4494,45 +4563,45 @@
       <c r="L52" s="18"/>
       <c r="M52" s="9"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="9"/>
-      <c r="C53" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="91" t="s">
+      <c r="C53" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="93" t="s">
+      <c r="E53" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="89" t="s">
+      <c r="F53" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="90" t="s">
+      <c r="G53" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="90" t="s">
+      <c r="H53" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="90" t="s">
+      <c r="I53" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="90" t="s">
+      <c r="J53" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="K53" s="90" t="s">
+      <c r="K53" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="96" t="s">
+      <c r="L53" s="98" t="s">
         <v>15</v>
       </c>
       <c r="M53" s="9"/>
     </row>
-    <row r="54" spans="2:13" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="9"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="96"/>
       <c r="F54" s="25" t="s">
         <v>18</v>
       </c>
@@ -4556,12 +4625,12 @@
       </c>
       <c r="M54" s="9"/>
     </row>
-    <row r="55" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
       <c r="C55" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="99" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="28" t="s">
@@ -4590,12 +4659,12 @@
       </c>
       <c r="M55" s="9"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="89" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="23" t="s">
@@ -4624,12 +4693,12 @@
       </c>
       <c r="M56" s="9"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="9"/>
       <c r="C57" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="89" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="23" t="s">
@@ -4658,12 +4727,12 @@
       </c>
       <c r="M57" s="9"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="9"/>
       <c r="C58" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="89" t="s">
         <v>24</v>
       </c>
       <c r="E58" s="23" t="s">
@@ -4692,12 +4761,12 @@
       </c>
       <c r="M58" s="9"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="9"/>
       <c r="C59" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="89" t="s">
         <v>24</v>
       </c>
       <c r="E59" s="23" t="s">
@@ -4726,12 +4795,12 @@
       </c>
       <c r="M59" s="9"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="89" t="s">
         <v>24</v>
       </c>
       <c r="E60" s="23" t="s">
@@ -4760,12 +4829,12 @@
       </c>
       <c r="M60" s="9"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="9"/>
       <c r="C61" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="89" t="s">
         <v>25</v>
       </c>
       <c r="E61" s="23" t="s">
@@ -4794,12 +4863,12 @@
       </c>
       <c r="M61" s="9"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
       <c r="C62" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="89" t="s">
         <v>25</v>
       </c>
       <c r="E62" s="23" t="s">
@@ -4828,12 +4897,12 @@
       </c>
       <c r="M62" s="9"/>
     </row>
-    <row r="63" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="9"/>
       <c r="C63" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="90" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="24" t="s">
@@ -4862,7 +4931,7 @@
       </c>
       <c r="M63" s="9"/>
     </row>
-    <row r="64" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -4876,7 +4945,7 @@
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -4890,23 +4959,23 @@
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
     </row>
-    <row r="66" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="81"/>
+      <c r="D66" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="18" t="s">
@@ -4928,7 +4997,7 @@
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="18" t="s">
@@ -4946,15 +5015,15 @@
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
@@ -4964,7 +5033,7 @@
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
     </row>
-    <row r="70" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="10" t="s">
@@ -4988,7 +5057,7 @@
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
     </row>
-    <row r="71" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="40">
@@ -5012,7 +5081,7 @@
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="41">
@@ -5036,7 +5105,7 @@
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="41">
@@ -5060,7 +5129,7 @@
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="41" t="s">
@@ -5084,7 +5153,7 @@
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="41" t="s">
@@ -5108,7 +5177,7 @@
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
     </row>
-    <row r="76" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="42" t="s">
@@ -5132,7 +5201,7 @@
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
     </row>
-    <row r="77" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -5146,7 +5215,7 @@
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -5160,14 +5229,14 @@
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
     </row>
-    <row r="79" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
-      <c r="D79" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="E79" s="99"/>
-      <c r="F79" s="99"/>
+      <c r="D79" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" s="101"/>
+      <c r="F79" s="101"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
@@ -5176,16 +5245,16 @@
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E80" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="100"/>
+      <c r="F80" s="102"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
@@ -5194,16 +5263,16 @@
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="E81" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="F81" s="101"/>
+        <v>99</v>
+      </c>
+      <c r="E81" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" s="103"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
@@ -5212,16 +5281,16 @@
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E82" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="F82" s="101"/>
+      <c r="E82" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" s="103"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
@@ -5230,16 +5299,16 @@
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="E83" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="F83" s="101"/>
+        <v>100</v>
+      </c>
+      <c r="E83" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83" s="103"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
@@ -5248,16 +5317,16 @@
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
     </row>
-    <row r="84" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="E84" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="F84" s="102"/>
+      <c r="E84" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F84" s="104"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
@@ -5266,16 +5335,16 @@
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
     </row>
-    <row r="85" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E85" s="103" t="s">
-        <v>106</v>
-      </c>
-      <c r="F85" s="103"/>
+      <c r="E85" s="105" t="s">
+        <v>102</v>
+      </c>
+      <c r="F85" s="105"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
@@ -5284,7 +5353,7 @@
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -5298,7 +5367,7 @@
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -5312,11 +5381,11 @@
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -5328,7 +5397,7 @@
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -5342,7 +5411,7 @@
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -5356,13 +5425,13 @@
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
     </row>
-    <row r="91" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="E91" s="98" t="s">
+      <c r="D91" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" s="100" t="s">
         <v>71</v>
       </c>
       <c r="F91" s="9"/>
@@ -5374,7 +5443,7 @@
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="51" t="s">
@@ -5392,7 +5461,7 @@
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="52" t="s">
@@ -5410,7 +5479,7 @@
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -5424,7 +5493,7 @@
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -5438,13 +5507,13 @@
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
     </row>
-    <row r="96" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="E96" s="98"/>
+      <c r="D96" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="E96" s="100"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -5454,7 +5523,7 @@
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="51" t="s">
@@ -5472,7 +5541,7 @@
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="52" t="s">
@@ -5490,7 +5559,7 @@
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -5504,7 +5573,7 @@
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -5518,11 +5587,11 @@
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
     </row>
-    <row r="101" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
@@ -5534,7 +5603,7 @@
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="51" t="s">
@@ -5550,7 +5619,7 @@
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="51" t="s">
@@ -5566,7 +5635,7 @@
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="52" t="s">
@@ -5582,7 +5651,7 @@
       <c r="L104" s="9"/>
       <c r="M104" s="9"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -5596,7 +5665,7 @@
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -5610,11 +5679,11 @@
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
     </row>
-    <row r="107" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
@@ -5626,7 +5695,7 @@
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="51" t="s">
@@ -5642,7 +5711,7 @@
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="51" t="s">
@@ -5658,7 +5727,7 @@
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="52" t="s">
@@ -5674,7 +5743,7 @@
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -5688,7 +5757,7 @@
       <c r="L111" s="9"/>
       <c r="M111" s="9"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -5702,7 +5771,7 @@
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -5716,51 +5785,51 @@
       <c r="L113" s="9"/>
       <c r="M113" s="9"/>
     </row>
-    <row r="114" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
-      <c r="D114" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="E114" s="82"/>
-      <c r="F114" s="82"/>
-      <c r="G114" s="82"/>
-      <c r="H114" s="82"/>
+      <c r="D114" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="E114" s="84"/>
+      <c r="F114" s="84"/>
+      <c r="G114" s="84"/>
+      <c r="H114" s="84"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
       <c r="M114" s="9"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
-      <c r="D115" s="83"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="83"/>
-      <c r="G115" s="83"/>
-      <c r="H115" s="83"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
-      <c r="D116" s="84"/>
-      <c r="E116" s="84"/>
-      <c r="F116" s="84"/>
-      <c r="G116" s="84"/>
-      <c r="H116" s="84"/>
+      <c r="D116" s="86"/>
+      <c r="E116" s="86"/>
+      <c r="F116" s="86"/>
+      <c r="G116" s="86"/>
+      <c r="H116" s="86"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
       <c r="M116" s="9"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -5774,7 +5843,7 @@
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -5788,23 +5857,23 @@
       <c r="L118" s="9"/>
       <c r="M118" s="9"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
-      <c r="D119" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="E119" s="81"/>
-      <c r="F119" s="81"/>
-      <c r="G119" s="81"/>
-      <c r="H119" s="81"/>
+      <c r="D119" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" s="83"/>
+      <c r="F119" s="83"/>
+      <c r="G119" s="83"/>
+      <c r="H119" s="83"/>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
       <c r="M119" s="9"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="18" t="s">
@@ -5828,16 +5897,16 @@
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="18"/>
       <c r="E121" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F121" s="18"/>
       <c r="G121" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H121" s="18"/>
       <c r="I121" s="9"/>
@@ -5846,7 +5915,7 @@
       <c r="L121" s="9"/>
       <c r="M121" s="9"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="54" t="s">
@@ -5862,7 +5931,7 @@
         <v>64</v>
       </c>
       <c r="H122" s="55" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5870,7 +5939,7 @@
       <c r="L122" s="9"/>
       <c r="M122" s="9"/>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="47" t="s">
@@ -5894,7 +5963,7 @@
       <c r="L123" s="9"/>
       <c r="M123" s="9"/>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="47" t="s">
@@ -5918,7 +5987,7 @@
       <c r="L124" s="9"/>
       <c r="M124" s="9"/>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="47" t="s">
@@ -5942,7 +6011,7 @@
       <c r="L125" s="9"/>
       <c r="M125" s="9"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="47" t="s">
@@ -5966,7 +6035,7 @@
       <c r="L126" s="9"/>
       <c r="M126" s="9"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="47" t="s">
@@ -5990,7 +6059,7 @@
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
     </row>
-    <row r="128" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="56" t="s">
@@ -6014,7 +6083,7 @@
       <c r="L128" s="9"/>
       <c r="M128" s="9"/>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -6028,7 +6097,7 @@
       <c r="L129" s="9"/>
       <c r="M129" s="9"/>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
@@ -6042,15 +6111,15 @@
       <c r="L130" s="9"/>
       <c r="M130" s="9"/>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
-      <c r="D131" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="E131" s="81"/>
-      <c r="F131" s="81"/>
-      <c r="G131" s="81"/>
+      <c r="D131" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E131" s="83"/>
+      <c r="F131" s="83"/>
+      <c r="G131" s="83"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -6058,7 +6127,7 @@
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="18" t="s">
@@ -6080,15 +6149,15 @@
       <c r="L132" s="9"/>
       <c r="M132" s="9"/>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="18"/>
       <c r="E133" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G133" s="18"/>
       <c r="H133" s="9"/>
@@ -6098,7 +6167,7 @@
       <c r="L133" s="9"/>
       <c r="M133" s="9"/>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="54" t="s">
@@ -6111,7 +6180,7 @@
         <v>64</v>
       </c>
       <c r="G134" s="55" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
@@ -6120,7 +6189,7 @@
       <c r="L134" s="9"/>
       <c r="M134" s="9"/>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="47" t="s">
@@ -6142,7 +6211,7 @@
       <c r="L135" s="9"/>
       <c r="M135" s="9"/>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="47" t="s">
@@ -6164,7 +6233,7 @@
       <c r="L136" s="9"/>
       <c r="M136" s="9"/>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="56" t="s">
@@ -6186,7 +6255,7 @@
       <c r="L137" s="9"/>
       <c r="M137" s="9"/>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
@@ -6200,7 +6269,7 @@
       <c r="L138" s="9"/>
       <c r="M138" s="9"/>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
@@ -6214,7 +6283,7 @@
       <c r="L139" s="9"/>
       <c r="M139" s="9"/>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
@@ -6228,7 +6297,7 @@
       <c r="L140" s="9"/>
       <c r="M140" s="9"/>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -6242,14 +6311,14 @@
       <c r="L141" s="9"/>
       <c r="M141" s="9"/>
     </row>
-    <row r="142" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
-      <c r="D142" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="E142" s="81"/>
-      <c r="F142" s="81"/>
+      <c r="D142" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="E142" s="83"/>
+      <c r="F142" s="83"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
@@ -6258,7 +6327,7 @@
       <c r="L142" s="9"/>
       <c r="M142" s="9"/>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="62" t="s">
@@ -6278,11 +6347,11 @@
       <c r="L143" s="9"/>
       <c r="M143" s="9"/>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="54" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E144" s="54" t="s">
         <v>58</v>
@@ -6298,7 +6367,7 @@
       <c r="L144" s="9"/>
       <c r="M144" s="9"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="59" t="s">
@@ -6318,7 +6387,7 @@
       <c r="L145" s="9"/>
       <c r="M145" s="9"/>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="60" t="s">
@@ -6338,7 +6407,7 @@
       <c r="L146" s="9"/>
       <c r="M146" s="9"/>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="60" t="s">
@@ -6358,7 +6427,7 @@
       <c r="L147" s="9"/>
       <c r="M147" s="9"/>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="60" t="s">
@@ -6378,7 +6447,7 @@
       <c r="L148" s="9"/>
       <c r="M148" s="9"/>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="60" t="s">
@@ -6398,7 +6467,7 @@
       <c r="L149" s="9"/>
       <c r="M149" s="9"/>
     </row>
-    <row r="150" spans="2:13" ht="27" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="60" t="s">
@@ -6418,7 +6487,7 @@
       <c r="L150" s="9"/>
       <c r="M150" s="9"/>
     </row>
-    <row r="151" spans="2:13" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="61" t="s">
@@ -6438,7 +6507,7 @@
       <c r="L151" s="9"/>
       <c r="M151" s="9"/>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
@@ -6452,7 +6521,7 @@
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -6466,13 +6535,13 @@
       <c r="L153" s="9"/>
       <c r="M153" s="9"/>
     </row>
-    <row r="154" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="E154" s="81"/>
+      <c r="D154" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="E154" s="83"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
@@ -6482,7 +6551,7 @@
       <c r="L154" s="9"/>
       <c r="M154" s="9"/>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="62" t="s">
@@ -6500,7 +6569,7 @@
       <c r="L155" s="9"/>
       <c r="M155" s="9"/>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="54" t="s">
@@ -6518,7 +6587,7 @@
       <c r="L156" s="9"/>
       <c r="M156" s="9"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="58" t="s">
@@ -6536,7 +6605,7 @@
       <c r="L157" s="9"/>
       <c r="M157" s="9"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="58" t="s">
@@ -6554,7 +6623,7 @@
       <c r="L158" s="9"/>
       <c r="M158" s="9"/>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="58" t="s">
@@ -6572,7 +6641,7 @@
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="58" t="s">
@@ -6590,7 +6659,7 @@
       <c r="L160" s="9"/>
       <c r="M160" s="9"/>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="63" t="s">
@@ -6608,7 +6677,7 @@
       <c r="L161" s="9"/>
       <c r="M161" s="9"/>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
@@ -6622,7 +6691,7 @@
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -6636,7 +6705,7 @@
       <c r="L163" s="9"/>
       <c r="M163" s="9"/>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -6650,7 +6719,7 @@
       <c r="L164" s="9"/>
       <c r="M164" s="9"/>
     </row>
-    <row r="165" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="12" t="s">
@@ -6666,7 +6735,7 @@
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -6680,7 +6749,7 @@
       <c r="L166" s="9"/>
       <c r="M166" s="9"/>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -6738,7 +6807,7 @@
     <mergeCell ref="K34:L34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D165" location="_st3" tooltip="Step3. Category and Module Level Properties" display="Step 3."/>
+    <hyperlink ref="D165" location="_st3" tooltip="Step3. Category and Module Level Properties" display="Step 3." xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6748,35 +6817,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="24.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="21.140625" style="66" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="66" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="20.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="21.109375" style="66" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="66" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -6786,7 +6855,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -6796,29 +6865,29 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
-      <c r="C8" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
+      <c r="C8" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -6828,7 +6897,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -6838,49 +6907,49 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
-      <c r="C12" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
+      <c r="C12" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="9"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -6890,7 +6959,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -6900,7 +6969,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -6910,7 +6979,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -6920,7 +6989,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -6930,19 +6999,19 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9"/>
-      <c r="C21" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
+      <c r="C21" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -6952,7 +7021,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -6962,89 +7031,89 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
-      <c r="C24" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
+      <c r="C24" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -7054,7 +7123,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -7064,25 +7133,25 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
-      <c r="C34" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="106"/>
+      <c r="C34" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="108"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
       <c r="C35" s="68" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D35" s="67" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -7090,7 +7159,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
       <c r="C36" s="68" t="s">
         <v>36</v>
@@ -7104,10 +7173,10 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="69" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D37" s="70">
         <v>39600</v>
@@ -7118,7 +7187,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -7128,7 +7197,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -7138,7 +7207,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -7148,7 +7217,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -7158,7 +7227,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -7168,19 +7237,19 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="9"/>
-      <c r="C43" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
+      <c r="C43" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -7190,7 +7259,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -7200,69 +7269,69 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
-      <c r="C46" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
+      <c r="C46" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="9"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="9"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="9"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -7272,7 +7341,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -7282,59 +7351,59 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="9"/>
-      <c r="C54" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
+      <c r="C54" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="9"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="9"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -7344,7 +7413,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -7354,7 +7423,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -7364,7 +7433,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -7374,7 +7443,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -7384,7 +7453,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -7394,7 +7463,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -7404,7 +7473,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -7414,7 +7483,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -7424,7 +7493,7 @@
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -7434,7 +7503,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -7444,7 +7513,7 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -7454,7 +7523,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -7464,7 +7533,7 @@
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -7474,7 +7543,7 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -7484,19 +7553,19 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
-      <c r="C74" s="104" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" s="104"/>
-      <c r="E74" s="104"/>
+      <c r="C74" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" s="106"/>
+      <c r="E74" s="106"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -7506,7 +7575,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -7516,7 +7585,7 @@
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -7526,7 +7595,7 @@
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -7536,7 +7605,7 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -7546,7 +7615,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -7556,7 +7625,7 @@
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -7566,7 +7635,7 @@
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -7576,7 +7645,7 @@
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -7586,7 +7655,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -7596,7 +7665,7 @@
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -7606,7 +7675,7 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -7616,7 +7685,7 @@
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -7626,7 +7695,7 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -7636,7 +7705,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -7646,7 +7715,7 @@
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -7656,7 +7725,7 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
     </row>
-    <row r="91" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -7666,7 +7735,7 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -7676,7 +7745,7 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
